--- a/mbrMoPvt_88.xlsx
+++ b/mbrMoPvt_88.xlsx
@@ -684,37 +684,37 @@
         <v>23305.06</v>
       </c>
       <c r="AA2">
-        <v>7280.56</v>
+        <v>18716.59</v>
       </c>
       <c r="AB2">
-        <v>314.5</v>
+        <v>18797.72</v>
       </c>
       <c r="AC2">
-        <v>19143.94</v>
+        <v>24069.23</v>
       </c>
       <c r="AD2">
-        <v>5723.74</v>
+        <v>21598.74</v>
       </c>
       <c r="AE2">
-        <v>8952.67</v>
+        <v>24265.47</v>
       </c>
       <c r="AF2">
-        <v>24197.63</v>
+        <v>24306.52</v>
       </c>
       <c r="AG2">
-        <v>5101.07</v>
+        <v>23566.02</v>
       </c>
       <c r="AH2">
-        <v>1861.43</v>
+        <v>21711.05</v>
       </c>
       <c r="AI2">
-        <v>25448.3</v>
+        <v>24609.36</v>
       </c>
       <c r="AJ2">
-        <v>5280.86</v>
+        <v>18613.01</v>
       </c>
       <c r="AK2">
-        <v>2518.36</v>
+        <v>4460.46</v>
       </c>
     </row>
   </sheetData>
